--- a/Bike_Buyer/Bike_buyer.xlsx
+++ b/Bike_Buyer/Bike_buyer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\New\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Bike_Buyer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DF0CE9-AFD5-45CA-A971-F507926BF5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9958A394-F47B-4814-A710-4DF27C3CF3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -185,7 +184,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -676,7 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -727,36 +726,12 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -785,10 +760,87 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable1</c:name>
+    <c:name>[Bike_buyer.xlsx]Pivot Table!PivotTable1</c:name>
     <c:fmtId val="9"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Purchase</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> by Gender and Average </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t>Income Status</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23130555555555554"/>
+          <c:y val="7.7682997958588504E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -1959,7 +2011,7 @@
         <s v="Male"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Income" numFmtId="166">
+    <cacheField name="Income" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000" maxValue="170000"/>
     </cacheField>
     <cacheField name="Children" numFmtId="0">
@@ -18010,7 +18062,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BBA9375-0F26-45AF-AF2A-C16030DE0631}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BBA9375-0F26-45AF-AF2A-C16030DE0631}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A2:D6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -18022,7 +18074,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -18072,14 +18124,14 @@
     <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="7">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -105607,7 +105659,7 @@
   <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Bike_Buyer/Bike_buyer.xlsx
+++ b/Bike_Buyer/Bike_buyer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Bike_Buyer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9958A394-F47B-4814-A710-4DF27C3CF3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B46B8BB-42DE-4521-9D7E-7EF9D0425DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,9 +182,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -680,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -726,7 +727,40 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -888,6 +922,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -944,6 +979,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1004,7 +1040,7 @@
             <c:numRef>
               <c:f>'Pivot Table'!$B$4:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>53440</c:v>
@@ -1063,7 +1099,7 @@
             <c:numRef>
               <c:f>'Pivot Table'!$C$4:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>55774.058577405856</c:v>
@@ -1081,6 +1117,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1275,7 +1312,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1310,6 +1347,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -18121,18 +18197,21 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0"/>
+    <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="170"/>
   </dataFields>
-  <formats count="2">
-    <format dxfId="1">
+  <formats count="3">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="11">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <chartFormats count="2">
@@ -105659,7 +105738,7 @@
   <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
